--- a/results/MVSE/freebase/MVSE_freebase<l05>AllRes_62.32.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l05>AllRes_62.32.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -819,7 +819,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -861,34 +861,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="O6" t="n">
-        <v>60.89</v>
+        <v>61.62</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-22_49_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-14_54_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -900,11 +900,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -912,14 +908,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -934,34 +930,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="O7" t="n">
-        <v>60.87</v>
+        <v>61.62</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.49</v>
+        <v>0.28</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_00_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_18_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 1, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -973,11 +969,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -992,7 +984,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -1012,20 +1004,20 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="O8" t="n">
-        <v>60.75</v>
+        <v>60.89</v>
       </c>
       <c r="P8" t="n">
         <v>0.02</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.11</v>
+        <v>0.32</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_49_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-22_49_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S8" t="n">
@@ -1034,7 +1026,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1058,7 +1050,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1080,34 +1072,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="O9" t="n">
-        <v>60.25</v>
+        <v>60.87</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.03</v>
+        <v>0.49</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_28_55', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_00_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1131,7 +1123,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1153,34 +1145,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>3</v>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="O10" t="n">
-        <v>60.24</v>
+        <v>60.75</v>
       </c>
       <c r="P10" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.54</v>
+        <v>0.11</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_46_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_49_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1204,7 +1196,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1226,34 +1218,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="O11" t="n">
-        <v>60.14</v>
+        <v>60.25</v>
       </c>
       <c r="P11" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_08_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_28_55', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1284,7 +1276,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1306,27 +1298,27 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="O12" t="n">
-        <v>59.9</v>
+        <v>60.24</v>
       </c>
       <c r="P12" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_58_37', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_46_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1338,7 +1330,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1353,7 +1349,7 @@
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1373,20 +1369,20 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.74</v>
+        <v>1.97</v>
       </c>
       <c r="O13" t="n">
-        <v>59.72</v>
+        <v>60.14</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-21_56_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_08_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S13" t="n">
@@ -1395,7 +1391,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1426,7 +1422,7 @@
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1442,29 +1438,171 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="O14" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_58_37', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>128</v>
+      </c>
+      <c r="H15" t="n">
+        <v>500</v>
+      </c>
+      <c r="I15" t="n">
+        <v>50</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O15" t="n">
+        <v>59.72</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-21_56_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>128</v>
+      </c>
+      <c r="H16" t="n">
+        <v>200</v>
+      </c>
+      <c r="I16" t="n">
+        <v>50</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
         <v>1.84</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O16" t="n">
         <v>59.41</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P16" t="n">
         <v>0.12</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q16" t="n">
         <v>0.32</v>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_05_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/freebase/MVSE_freebase<l05>AllRes_62.32.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l05>AllRes_62.32.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -888,7 +888,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -931,33 +931,33 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="O7" t="n">
-        <v>60.92</v>
+        <v>61.12</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.18</v>
+        <v>0.62</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_56_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_26_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -977,14 +977,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -999,34 +999,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="O8" t="n">
-        <v>60.89</v>
+        <v>60.92</v>
       </c>
       <c r="P8" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_11_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_56_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1038,11 +1038,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1057,7 +1053,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1077,20 +1073,20 @@
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="O9" t="n">
-        <v>60.87</v>
+        <v>60.89</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.49</v>
+        <v>0.35</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_00_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_11_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="n">
@@ -1099,7 +1095,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1111,7 +1107,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1126,7 +1126,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1146,20 +1146,20 @@
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.57</v>
+        <v>1.98</v>
       </c>
       <c r="O10" t="n">
-        <v>60.79</v>
+        <v>60.87</v>
       </c>
       <c r="P10" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_56_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_00_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="n">
@@ -1168,7 +1168,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1180,11 +1180,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1199,7 +1195,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1219,20 +1215,20 @@
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="O11" t="n">
-        <v>60.75</v>
+        <v>60.79</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.11</v>
+        <v>0.52</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_49_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_56_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S11" t="n">
@@ -1241,7 +1237,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1253,7 +1249,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1261,14 +1261,14 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1283,34 +1283,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="O12" t="n">
-        <v>60.7</v>
+        <v>60.75</v>
       </c>
       <c r="P12" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_10_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_49_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1359,27 +1359,27 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="O13" t="n">
-        <v>60.69</v>
+        <v>60.7</v>
       </c>
       <c r="P13" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="Q13" t="n">
         <v>0.5</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_28_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_10_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1391,11 +1391,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1410,7 +1406,7 @@
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1432,27 +1428,27 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>2.1</v>
+        <v>1.77</v>
       </c>
       <c r="O14" t="n">
-        <v>60.25</v>
+        <v>60.69</v>
       </c>
       <c r="P14" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_28_55', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_28_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1464,11 +1460,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1483,7 +1475,7 @@
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1505,27 +1497,27 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="O15" t="n">
-        <v>60.24</v>
+        <v>60.63</v>
       </c>
       <c r="P15" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_46_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_00_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1549,7 +1541,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1571,34 +1563,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="O16" t="n">
-        <v>60.14</v>
+        <v>60.25</v>
       </c>
       <c r="P16" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_08_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_28_55', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1610,7 +1602,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1641,33 +1637,33 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="O17" t="n">
-        <v>60.02</v>
+        <v>60.24</v>
       </c>
       <c r="P17" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.77</v>
+        <v>0.54</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_46_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_46_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1679,11 +1675,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1691,14 +1683,14 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>128</v>
       </c>
       <c r="H18" t="n">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="I18" t="n">
         <v>50</v>
@@ -1713,34 +1705,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>3</v>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>1.96</v>
+        <v>1.65</v>
       </c>
       <c r="O18" t="n">
-        <v>59.9</v>
+        <v>60.17</v>
       </c>
       <c r="P18" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_58_37', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_17_16', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1752,7 +1744,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1767,7 +1763,7 @@
         <v>128</v>
       </c>
       <c r="H19" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I19" t="n">
         <v>50</v>
@@ -1787,20 +1783,20 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>1.7</v>
+        <v>1.97</v>
       </c>
       <c r="O19" t="n">
-        <v>59.81</v>
+        <v>60.14</v>
       </c>
       <c r="P19" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.39</v>
+        <v>0.21</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_31_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_08_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S19" t="n">
@@ -1809,7 +1805,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1836,7 +1832,7 @@
         <v>128</v>
       </c>
       <c r="H20" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I20" t="n">
         <v>50</v>
@@ -1856,29 +1852,29 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="O20" t="n">
-        <v>59.72</v>
+        <v>60.12</v>
       </c>
       <c r="P20" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.15</v>
+        <v>0.52</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_55_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_43_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1890,11 +1886,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1925,29 +1917,313 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="O21" t="n">
+        <v>60.02</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_46_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>128</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="O22" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_58_37', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>128</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I23" t="n">
+        <v>50</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O23" t="n">
+        <v>59.81</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_31_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>128</v>
+      </c>
+      <c r="H24" t="n">
+        <v>500</v>
+      </c>
+      <c r="I24" t="n">
+        <v>50</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O24" t="n">
+        <v>59.72</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_55_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>128</v>
+      </c>
+      <c r="H25" t="n">
+        <v>200</v>
+      </c>
+      <c r="I25" t="n">
+        <v>50</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
         <v>1.84</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O25" t="n">
         <v>59.41</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P25" t="n">
         <v>0.12</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q25" t="n">
         <v>0.32</v>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_05_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/freebase/MVSE_freebase<l05>AllRes_62.32.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l05>AllRes_62.32.xlsx
@@ -596,7 +596,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_52_16', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -646,7 +648,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
@@ -742,7 +746,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-17_23_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -792,7 +798,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
@@ -831,7 +839,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -884,7 +896,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_14_15', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -900,7 +914,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -953,7 +971,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_26_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -969,7 +989,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1022,7 +1046,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_56_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1038,7 +1064,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1068,7 +1098,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
@@ -1141,7 +1173,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
@@ -1180,7 +1214,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1210,7 +1248,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
@@ -1283,7 +1323,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
@@ -1322,7 +1364,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1375,7 +1421,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_10_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1391,7 +1439,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1444,7 +1496,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_28_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1460,7 +1514,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1513,7 +1571,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_00_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1586,7 +1646,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_28_55', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1659,7 +1721,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_46_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1675,7 +1739,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1705,7 +1773,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
@@ -1778,7 +1848,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
@@ -1817,7 +1889,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1847,7 +1923,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
@@ -1886,7 +1964,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1939,7 +2021,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_46_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2012,7 +2096,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_58_37', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2028,7 +2114,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -2058,7 +2148,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
@@ -2097,7 +2189,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -2127,7 +2223,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
@@ -2223,7 +2321,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_05_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>4096</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
